--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2685580.098433191</v>
+        <v>2761109.768097997</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10.11197856605553</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>150.2073424562175</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>123.2558368419823</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>123.0607915108177</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.32882004050031</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>134.6751203255737</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.14483238681286</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.0246247964032</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>230.5833406478057</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>190.3549318148854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.68610738332261</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.12791688416448</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>109.9412598317184</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2132,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>175.1772294423866</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>25.37433807241453</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>179.4514485370819</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>30.15452024383392</v>
+        <v>79.41372521244867</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.7178027211476</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>215.7053919670787</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.53293045533964</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>256.3432811758638</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3323,7 +3325,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>161.0156334937747</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>144.8076954647696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>50.45300511654406</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>88.30692799139872</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>205.1666956151577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1034.617283051399</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C2" t="n">
-        <v>1034.617283051399</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="D2" t="n">
-        <v>1034.617283051399</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1034.617283051399</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>623.6313782617913</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>205.6675701599781</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>205.6675701599781</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115521</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4428,28 +4430,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2517.816571739809</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2299.181904711872</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2045.420119349963</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2045.420119349963</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.420119349963</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2045.420119349963</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.280787374151</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>701.5342164887571</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>701.5342164887571</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="S7" t="n">
-        <v>701.5342164887571</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="T7" t="n">
-        <v>701.5342164887571</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="U7" t="n">
-        <v>701.5342164887571</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="V7" t="n">
-        <v>701.5342164887571</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="W7" t="n">
-        <v>701.5342164887571</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="X7" t="n">
-        <v>701.5342164887571</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.5342164887571</v>
+        <v>562.6765899837193</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117927</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.78839318292</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675914</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036442</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036442</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036442</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,10 +5056,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>524.5778132641556</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C13" t="n">
-        <v>355.6416303362487</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D13" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
         <v>208.7516828383384</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.921157035281</v>
+        <v>1266.003805257089</v>
       </c>
       <c r="W13" t="n">
-        <v>898.50398699832</v>
+        <v>976.5866352201284</v>
       </c>
       <c r="X13" t="n">
-        <v>898.50398699832</v>
+        <v>748.5970843221111</v>
       </c>
       <c r="Y13" t="n">
-        <v>706.2262780943953</v>
+        <v>527.8045051785809</v>
       </c>
     </row>
     <row r="14">
@@ -5276,7 +5278,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514086</v>
@@ -5291,10 +5293,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5434,7 +5436,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5443,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>503.0396462065435</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y16" t="n">
-        <v>282.2470670630133</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,10 +5536,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5662,13 +5664,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,25 +5697,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1449.292112089049</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1249.372102004602</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1025.586686794107</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>736.4580480076656</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>736.4580480076656</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>447.040877970705</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X19" t="n">
-        <v>447.040877970705</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y19" t="n">
         <v>447.040877970705</v>
@@ -5738,7 +5740,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.27469227828</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2315.738453580939</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.900558318119</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C22" t="n">
-        <v>272.964375390212</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D22" t="n">
-        <v>122.8477359778763</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E22" t="n">
-        <v>122.8477359778763</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F22" t="n">
-        <v>122.8477359778763</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>870.7229774352688</v>
       </c>
       <c r="Y22" t="n">
-        <v>441.900558318119</v>
+        <v>870.7229774352688</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>213.9110074201016</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6178,19 +6180,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>839.1822777101255</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.9110074201016</v>
+        <v>390.4001476685781</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6205,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6309,22 +6311,22 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.546326320615</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>557.8041243279824</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C28" t="n">
-        <v>557.8041243279824</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="D28" t="n">
-        <v>557.8041243279824</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="E28" t="n">
-        <v>557.8041243279824</v>
+        <v>327.850983965321</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>785.7936752259998</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X28" t="n">
-        <v>557.8041243279824</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y28" t="n">
-        <v>557.8041243279824</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,25 +6457,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3588.163275453187</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>3588.163275453187</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3588.163275453187</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3588.163275453187</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281177</v>
+        <v>1281.032036247722</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.945405494735</v>
+        <v>991.90339746128</v>
       </c>
       <c r="V31" t="n">
-        <v>4036.945405494735</v>
+        <v>737.2189092553931</v>
       </c>
       <c r="W31" t="n">
-        <v>4036.945405494735</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="X31" t="n">
-        <v>3808.955854596717</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y31" t="n">
-        <v>3588.163275453187</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6694,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3606.045341414587</v>
+        <v>795.449652310468</v>
       </c>
       <c r="C34" t="n">
-        <v>3606.045341414587</v>
+        <v>626.5134693825611</v>
       </c>
       <c r="D34" t="n">
-        <v>3606.045341414587</v>
+        <v>476.3968299702253</v>
       </c>
       <c r="E34" t="n">
-        <v>3606.045341414587</v>
+        <v>328.4837363878322</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916677</v>
+        <v>181.5937888899219</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916677</v>
+        <v>181.5937888899219</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4378.136550555451</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>4123.452062349565</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>3834.034892312604</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X34" t="n">
-        <v>3606.045341414587</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y34" t="n">
-        <v>3606.045341414587</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7029,10 +7031,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.4452354807079</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="C37" t="n">
-        <v>415.509052552801</v>
+        <v>557.8888784891305</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>407.7722390767948</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>259.8591454944017</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>259.8591454944017</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1133.156678913841</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>1133.156678913841</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>986.8862794544777</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y37" t="n">
-        <v>766.0937003109476</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7199,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>410.1323227212476</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.7169704793943</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,43 +7396,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7493,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>785.4801130615103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>616.5439301336035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1187.92115703528</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>1187.92115703528</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.92115703528</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>967.1285778917501</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,7 +7663,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899127</v>
@@ -7673,25 +7675,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.9270610048577</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X46" t="n">
-        <v>747.5755258350974</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y46" t="n">
-        <v>747.5755258350974</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415606</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445216</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>85.30006332127817</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>21.55430267602227</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>28.22972153720937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.1458727986147</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>75.26883114644289</v>
       </c>
     </row>
     <row r="17">
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.83643551962831</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>108.6433935203764</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>4.654750739550707</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>141.1192303909631</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>107.0715497995091</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>115.2665277790973</v>
+        <v>66.00732281048258</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>17.70324530178364</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>5.842169091310524</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>65.38089791219649</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25126,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>29.89407122271359</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5.477934969602927</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>80.90195992426754</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>98.16246790166829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>60.30854502681363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>20.5429597738794</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065632</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="M2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007436</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007482</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007533</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007442</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007483</v>
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.6785956621</v>
+        <v>-204962.678595662</v>
       </c>
       <c r="C6" t="n">
         <v>385005.2006188823</v>
@@ -26528,40 +26530,40 @@
         <v>385005.2006188824</v>
       </c>
       <c r="E6" t="n">
-        <v>-38520.50447505747</v>
+        <v>-38520.50447505707</v>
       </c>
       <c r="F6" t="n">
         <v>486639.532001839</v>
       </c>
       <c r="G6" t="n">
-        <v>486639.5320018389</v>
+        <v>486639.5320018391</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.5320018389</v>
+        <v>486639.532001839</v>
       </c>
       <c r="I6" t="n">
-        <v>486639.5320018388</v>
+        <v>486639.5320018387</v>
       </c>
       <c r="J6" t="n">
-        <v>310216.3128092462</v>
+        <v>310216.312809246</v>
       </c>
       <c r="K6" t="n">
         <v>486639.5320018388</v>
       </c>
       <c r="L6" t="n">
+        <v>486639.5320018389</v>
+      </c>
+      <c r="M6" t="n">
+        <v>351838.5167680017</v>
+      </c>
+      <c r="N6" t="n">
         <v>486639.5320018388</v>
-      </c>
-      <c r="M6" t="n">
-        <v>351838.5167680016</v>
-      </c>
-      <c r="N6" t="n">
-        <v>486639.5320018386</v>
       </c>
       <c r="O6" t="n">
         <v>486639.5320018388</v>
       </c>
       <c r="P6" t="n">
-        <v>486639.5320018391</v>
+        <v>486639.5320018388</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>344.5710630546274</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.723973788643718</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>242.0170549290252</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>51.3549212981538</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.79392991441399</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>11.99007165458411</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27856,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.33357018799889</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>17.64056718375465</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775188</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36449,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36686,7 +36688,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>367.6637655623863</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36695,7 +36697,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,16 +36922,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>427.5988335514877</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37159,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>567.6062243483295</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37397,13 +37399,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>462.3874039146953</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37634,10 +37636,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2761109.768097997</v>
+        <v>2754092.753206285</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10.11197856605553</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>38.29485867911312</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553087</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.5968903908894</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>123.2558368419823</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>362.1660120326973</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -946,19 +946,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.90848140332574</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1074,7 +1074,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>225.2709325245978</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>230.5833406478057</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>135.727387919586</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>111.7766731467</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.3158222056519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.9412598317184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>175.1772294423866</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>179.4514485370819</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>79.41372521244867</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>114.187260781903</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>215.7053919670787</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.53293045533964</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.0156334937747</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>136.957550952458</v>
       </c>
       <c r="U43" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>5.107731335945625</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1759.555763042629</v>
+        <v>1349.514859931283</v>
       </c>
       <c r="C2" t="n">
-        <v>1759.555763042629</v>
+        <v>1349.514859931283</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>991.2491613245327</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>991.2491613245327</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4327,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2423.48573452078</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312744</v>
+        <v>2092.422847177209</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1739.654191907095</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1739.654191907095</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>1349.514859931283</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170843</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359573</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747061</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692506</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961356</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424017</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430049</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073965</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196744</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935841</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>713.3846504782638</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>565.2379919124478</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306106</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1873.842488573869</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1293.161685715202</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1293.161685715202</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>907.3734331169576</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>900.4279323677541</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4564,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1662.124202655614</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>1662.124202655614</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4655,34 +4655,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>562.6765899837193</v>
+        <v>721.1507201626711</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>573.2376265802779</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>769.0955750279682</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>762.1500742787647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4901,31 +4901,31 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.8045051785809</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>358.8683222506741</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1266.003805257089</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>976.5866352201284</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X13" t="n">
-        <v>748.5970843221111</v>
+        <v>593.9308254686154</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.8045051785809</v>
+        <v>593.9308254686154</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>931.4060418163556</v>
       </c>
       <c r="X16" t="n">
-        <v>241.9805482336716</v>
+        <v>931.4060418163556</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>710.6134626728254</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,10 +5536,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5709,16 +5709,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>786.0822064765186</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>558.0926555785013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5743,43 +5743,43 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5837,16 +5837,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>693.7762810288177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>524.8400981009108</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.712528333286</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.712528333286</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>870.7229774352688</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>870.7229774352688</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>839.1822777101255</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>611.1927268121082</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>390.4001476685781</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6305,10 +6305,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
         <v>891.4406401619856</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>644.700260475621</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>475.7640775477141</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>475.7640775477141</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>327.850983965321</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X28" t="n">
-        <v>1047.141304449391</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y28" t="n">
-        <v>826.3487253058607</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,7 +6457,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1281.032036247722</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>991.90339746128</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>737.2189092553931</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>447.8017392184324</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,7 +6715,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899127</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>626.5134693825611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>476.3968299702253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>328.4837363878322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>181.5937888899219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>181.5937888899219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>557.8888784891305</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>407.7722390767948</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>259.8591454944017</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>259.8591454944017</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7426,7 +7426,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1360.575309999864</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>816.7621830075352</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1493.756945976139</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1269.971530765645</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>980.8428919792032</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>726.1584037733163</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W46" t="n">
-        <v>436.7412337363557</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747158</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>21.55430267602227</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>89.98226746945116</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>174.746325189891</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.26883114644289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.6433935203764</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.654750739550707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>107.0715497995091</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24609,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>66.00732281048258</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>104.3973925701918</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.842169091310524</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>65.38089791219649</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>5.477934969602927</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>84.59001010593121</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>192.8130786476576</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789187.0574408497</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408496</v>
       </c>
     </row>
     <row r="12">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065625</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="J2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
         <v>586543.589606563</v>
@@ -26349,10 +26349,10 @@
         <v>586543.589606563</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="P2" t="n">
         <v>586543.5896065629</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159207</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
@@ -26447,16 +26447,16 @@
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007483</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340947</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.678595662</v>
+        <v>-204962.6785956621</v>
       </c>
       <c r="C6" t="n">
-        <v>385005.2006188823</v>
+        <v>385005.2006188828</v>
       </c>
       <c r="D6" t="n">
         <v>385005.2006188824</v>
       </c>
       <c r="E6" t="n">
-        <v>-38520.50447505707</v>
+        <v>-39495.09573477892</v>
       </c>
       <c r="F6" t="n">
-        <v>486639.532001839</v>
+        <v>485664.9407421168</v>
       </c>
       <c r="G6" t="n">
-        <v>486639.5320018391</v>
+        <v>485664.940742117</v>
       </c>
       <c r="H6" t="n">
-        <v>486639.532001839</v>
+        <v>485664.9407421172</v>
       </c>
       <c r="I6" t="n">
-        <v>486639.5320018387</v>
+        <v>485664.940742117</v>
       </c>
       <c r="J6" t="n">
-        <v>310216.312809246</v>
+        <v>309241.7215495243</v>
       </c>
       <c r="K6" t="n">
-        <v>486639.5320018388</v>
+        <v>485664.9407421172</v>
       </c>
       <c r="L6" t="n">
-        <v>486639.5320018389</v>
+        <v>485664.9407421172</v>
       </c>
       <c r="M6" t="n">
-        <v>351838.5167680017</v>
+        <v>350863.9255082801</v>
       </c>
       <c r="N6" t="n">
-        <v>486639.5320018388</v>
+        <v>485664.9407421172</v>
       </c>
       <c r="O6" t="n">
-        <v>486639.5320018388</v>
+        <v>485664.9407421175</v>
       </c>
       <c r="P6" t="n">
-        <v>486639.5320018388</v>
+        <v>485664.9407421171</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545559</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>344.5710630546274</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>368.5811870625983</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>14.52585956402485</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>242.0170549290252</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>51.61815798809766</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7069916148866</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>11.99007165458411</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>188.5132374961972</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770699</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
@@ -36457,7 +36457,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2754092.753206285</v>
+        <v>2759032.016055317</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>38.29485867911312</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>17.0646078764389</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481161</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553087</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.5968903908894</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>116.0621231825097</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>362.1660120326973</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>299.1133585519248</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.90848140332574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>153.8100533453326</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>225.2709325245978</v>
+        <v>377.202248769459</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>135.727387919586</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>172.2371540099081</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>111.7766731467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274191</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>89.37060294404628</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274046</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>263.0596061408513</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>181.3807313307302</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.187260781903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>215.9495548965046</v>
       </c>
     </row>
     <row r="32">
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>114.9309043193592</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>94.01765267707079</v>
       </c>
     </row>
     <row r="41">
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>136.957550952458</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185879</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1349.514859931283</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C2" t="n">
-        <v>1349.514859931283</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="D2" t="n">
-        <v>991.2491613245327</v>
+        <v>823.2839882883468</v>
       </c>
       <c r="E2" t="n">
-        <v>991.2491613245327</v>
+        <v>823.2839882883468</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>816.3384875391433</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>398.3746794373302</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>71.17995947333304</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.48573452078</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.48573452078</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177209</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907095</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907095</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1349.514859931283</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170843</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359573</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747061</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692506</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961356</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424017</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572651</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414848</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435192</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.317569050021</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430049</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073965</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196744</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935841</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036448</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036448</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036448</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036448</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>713.3846504782638</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>565.2379919124478</v>
+        <v>610.8945163453135</v>
       </c>
       <c r="S4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="T4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="U4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="V4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="W4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="X4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.9495687306106</v>
+        <v>396.6060931634762</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.124202655614</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1293.161685715202</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D5" t="n">
-        <v>1293.161685715202</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="E5" t="n">
-        <v>907.3734331169576</v>
+        <v>934.4529722842963</v>
       </c>
       <c r="F5" t="n">
-        <v>900.4279323677541</v>
+        <v>927.5074715350928</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>509.5436634332797</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655614</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.124202655614</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D7" t="n">
-        <v>721.1507201626711</v>
+        <v>357.2197656505683</v>
       </c>
       <c r="E7" t="n">
-        <v>573.2376265802779</v>
+        <v>209.3066720681752</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>209.3066720681752</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4795,28 +4795,28 @@
         <v>762.1500742787647</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4859,73 +4859,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5026,10 +5026,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,49 +5041,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>593.9308254686154</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>593.9308254686154</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>710.6134626728254</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C16" t="n">
-        <v>710.6134626728254</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1324.939347315571</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1035.810708529129</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>1035.810708529129</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4060418163556</v>
+        <v>746.3935384921685</v>
       </c>
       <c r="X16" t="n">
-        <v>931.4060418163556</v>
+        <v>746.3935384921685</v>
       </c>
       <c r="Y16" t="n">
-        <v>710.6134626728254</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805482</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822474</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>873.8624055176685</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6180,19 +6180,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6223,22 +6223,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>980.8428919792033</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>726.1584037733164</v>
       </c>
       <c r="W28" t="n">
-        <v>731.3177283550796</v>
+        <v>436.7412337363558</v>
       </c>
       <c r="X28" t="n">
-        <v>731.3177283550796</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y28" t="n">
-        <v>615.9770608986119</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954967</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6727,10 +6727,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,43 +7183,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>994.3109288932102</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>825.3747459653033</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,13 +7402,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7420,22 +7420,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1360.575309999864</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>816.7621830075352</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>527.3450129705745</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,34 +7627,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7830,22 +7830,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954967</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747158</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9011,16 +9011,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>89.98226746945116</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>49.31040704848118</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>174.746325189891</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>162.7670403797817</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>23.17774625772603</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>104.8566210678472</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>104.3973925701918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>2.635098455590224</v>
       </c>
     </row>
     <row r="32">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>51.56266414401836</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>124.567000675024</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>84.59001010593121</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871784</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.0574408495</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408495</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>789187.0574408496</v>
+        <v>789187.0574408497</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="I2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="F2" t="n">
-        <v>586543.5896065625</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="M2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="I2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065631</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>586543.589606563</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145449</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159207</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007519</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007431</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-204962.6785956621</v>
+        <v>-204962.6785956624</v>
       </c>
       <c r="C6" t="n">
-        <v>385005.2006188828</v>
+        <v>385005.2006188823</v>
       </c>
       <c r="D6" t="n">
-        <v>385005.2006188824</v>
+        <v>385005.2006188825</v>
       </c>
       <c r="E6" t="n">
-        <v>-39495.09573477892</v>
+        <v>-38617.96360102972</v>
       </c>
       <c r="F6" t="n">
-        <v>485664.9407421168</v>
+        <v>486542.072875867</v>
       </c>
       <c r="G6" t="n">
-        <v>485664.940742117</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="H6" t="n">
-        <v>485664.9407421172</v>
+        <v>486542.0728758665</v>
       </c>
       <c r="I6" t="n">
-        <v>485664.940742117</v>
+        <v>486542.0728758666</v>
       </c>
       <c r="J6" t="n">
-        <v>309241.7215495243</v>
+        <v>310118.8536832734</v>
       </c>
       <c r="K6" t="n">
-        <v>485664.9407421172</v>
+        <v>486542.0728758668</v>
       </c>
       <c r="L6" t="n">
-        <v>485664.9407421172</v>
+        <v>486542.0728758666</v>
       </c>
       <c r="M6" t="n">
-        <v>350863.9255082801</v>
+        <v>351741.0576420294</v>
       </c>
       <c r="N6" t="n">
-        <v>485664.9407421172</v>
+        <v>486542.0728758665</v>
       </c>
       <c r="O6" t="n">
-        <v>485664.9407421175</v>
+        <v>486542.0728758667</v>
       </c>
       <c r="P6" t="n">
-        <v>485664.9407421171</v>
+        <v>486542.0728758667</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>368.5811870625983</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>134.8667083684223</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853695</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>14.52585956402485</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.60306879764809</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>51.61815798809766</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>24.80941421243233</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7069916148866</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>13.49974891371826</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>188.5132374961972</v>
+        <v>36.58192125133598</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-1.165290086646564e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181312</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770699</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>462.3874039146955</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35667,10 +35667,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
